--- a/PCB/BOM_Board1_PCB1_2022-03-22.xlsx
+++ b/PCB/BOM_Board1_PCB1_2022-03-22.xlsx
@@ -205,7 +205,7 @@
     <t>K2-6645DP-Q4SW-04</t>
   </si>
   <si>
-    <t>SW1,UP</t>
+    <t>SETTING,UP</t>
   </si>
   <si>
     <t>SW-TH_4P-L6.0-W6.0-P4.50-LS6.5</t>
